--- a/indicators/USAID South Sudan PMP indicator listing.xlsx
+++ b/indicators/USAID South Sudan PMP indicator listing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dan.killian\Documents\South Sudan resilience - MSI\indicators\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDF7DB7C-808B-4EFB-8E54-9363C1D8D315}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D21AED1-B77F-4B04-9718-7A9C5D1D2E54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{42BF4178-A919-440E-9293-97407003C5E4}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" xr2:uid="{42BF4178-A919-440E-9293-97407003C5E4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -351,12 +351,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -371,7 +377,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -381,6 +387,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -698,8 +707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15F5CA56-316A-4A7D-9484-2A68F373ED9B}">
   <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1147,7 +1156,7 @@
       <c r="C37" s="3">
         <v>36</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="4" t="s">
         <v>35</v>
       </c>
       <c r="E37" t="s">
@@ -1398,7 +1407,7 @@
       <c r="C59" s="3">
         <v>58</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="4" t="s">
         <v>57</v>
       </c>
       <c r="E59" t="s">
@@ -1412,7 +1421,7 @@
       <c r="C60" s="3">
         <v>59</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E60" t="s">
@@ -1426,7 +1435,7 @@
       <c r="C61" s="3">
         <v>60</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="D61" s="4" t="s">
         <v>59</v>
       </c>
       <c r="E61" t="s">
